--- a/进度规划/七七四十九.xlsx
+++ b/进度规划/七七四十九.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troy_tu/Troy_Notes/进度规划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF886949-D20C-9B48-BE99-A23DB826BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256C240-A358-664C-AEC0-E94992AD5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="500" windowWidth="21780" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步挑战" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="39">
   <si>
     <t>每日计划</t>
   </si>
@@ -156,6 +156,73 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重积分计算</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代课</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语作文第一段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语作文第二段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语作文第三段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读1-2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014更正</t>
+  </si>
+  <si>
+    <t>2014更正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计网最后一章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -363,19 +430,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -387,10 +442,22 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,8 +1219,8 @@
   </sheetPr>
   <dimension ref="B1:W24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1206,37 +1273,37 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -1264,16 +1331,16 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1288,16 +1355,16 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
@@ -1311,16 +1378,16 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
@@ -1334,16 +1401,16 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -1357,16 +1424,16 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
@@ -1380,16 +1447,16 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
@@ -1403,16 +1470,16 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
@@ -1426,16 +1493,16 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -1610,8 +1677,8 @@
   </sheetPr>
   <dimension ref="B1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1659,17 +1726,17 @@
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="2"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="2:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
@@ -1696,17 +1763,17 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -1734,17 +1801,17 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1752,199 +1819,241 @@
         <f>B5+TIME(0,60,0)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <f t="shared" ref="B7:B21" si="0">B6+TIME(0,60,0)</f>
         <v>0.37500000000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>0.41666666666666674</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>0.45833333333333343</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1957,7 +2066,9 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1970,20 +2081,36 @@
         <f t="shared" si="0"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>0.79166666666666652</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1996,7 +2123,9 @@
         <f>B17+TIME(0,60,0)</f>
         <v>0.83333333333333315</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2009,7 +2138,9 @@
         <f t="shared" si="0"/>
         <v>0.87499999999999978</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2143,16 +2274,16 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -2545,17 +2676,17 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -2583,17 +2714,17 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -2608,17 +2739,17 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
@@ -2632,17 +2763,17 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
@@ -2656,17 +2787,17 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -2680,17 +2811,17 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
@@ -2704,17 +2835,17 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
@@ -2728,17 +2859,17 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
@@ -2752,17 +2883,17 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -2776,17 +2907,17 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
@@ -2826,9 +2957,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
@@ -2842,9 +2973,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
@@ -2858,9 +2989,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10">
@@ -3001,17 +3132,17 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -3039,17 +3170,17 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3064,17 +3195,17 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
@@ -3088,17 +3219,17 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
@@ -3112,17 +3243,17 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -3136,17 +3267,17 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
@@ -3160,17 +3291,17 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
@@ -3184,17 +3315,17 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
@@ -3208,17 +3339,17 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -3232,17 +3363,17 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
@@ -3282,9 +3413,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
@@ -3298,9 +3429,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
@@ -3314,9 +3445,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10">
@@ -3457,17 +3588,17 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -3495,17 +3626,17 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3520,17 +3651,17 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
@@ -3544,17 +3675,17 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
@@ -3568,17 +3699,17 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -3592,17 +3723,17 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
@@ -3616,17 +3747,17 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
@@ -3640,17 +3771,17 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
@@ -3664,17 +3795,17 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -3688,17 +3819,17 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
@@ -3738,9 +3869,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
@@ -3754,9 +3885,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
@@ -3770,9 +3901,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10">
@@ -3838,8 +3969,8 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="131" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" zoomScale="131" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3913,17 +4044,17 @@
       <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -3951,17 +4082,17 @@
       <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="17"/>
     </row>
     <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3976,17 +4107,17 @@
       <c r="G6" s="15"/>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
@@ -4000,17 +4131,17 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="25"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
@@ -4024,17 +4155,17 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
@@ -4048,17 +4179,17 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
@@ -4072,17 +4203,17 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
@@ -4096,17 +4227,17 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
@@ -4120,17 +4251,17 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
@@ -4144,17 +4275,17 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
@@ -4194,9 +4325,9 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10">
@@ -4210,9 +4341,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="25"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
@@ -4226,9 +4357,9 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10">

--- a/进度规划/七七四十九.xlsx
+++ b/进度规划/七七四十九.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/troy_tu/Troy_Notes/进度规划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A256C240-A358-664C-AEC0-E94992AD5630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C7D4BA-D426-1F4A-A553-A3E9D57D085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="500" windowWidth="21780" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步挑战" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>每日计划</t>
   </si>
@@ -225,6 +225,262 @@
     <t>算法题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>政治梳理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学真题整理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文/单词</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林1更正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林2更正</t>
+  </si>
+  <si>
+    <t>作文整理完整并且答应</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择题分知识点更正并强化</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖八复盘并补充知识点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赶紧搞完背诵-搞不完别睡了</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找到东西背诵啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不然一直焦虑没学</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉好久没看了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>组成原理知识点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读视频</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统知识点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络知识点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大题回顾</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>17年真题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年真题</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>19年真题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学更正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>真题更正</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>真题更正</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治背诵</t>
+  </si>
+  <si>
+    <t>政治背诵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语背诵</t>
+  </si>
+  <si>
+    <t>英语背诵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="4"/>
@@ -321,6 +577,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -371,7 +633,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -448,6 +710,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +724,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1220,7 +1488,7 @@
   <dimension ref="B1:W24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1294,16 +1562,16 @@
       <c r="I4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -1677,8 +1945,8 @@
   </sheetPr>
   <dimension ref="B1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1764,16 +2032,16 @@
         <v>25</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -1863,8 +2131,12 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="L7" s="22"/>
       <c r="M7" s="21"/>
@@ -1889,8 +2161,12 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="L8" s="22"/>
       <c r="M8" s="21"/>
@@ -1915,8 +2191,12 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="L9" s="22"/>
       <c r="M9" s="21"/>
@@ -1941,8 +2221,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="L10" s="22"/>
       <c r="M10" s="21"/>
@@ -2199,8 +2483,8 @@
   </sheetPr>
   <dimension ref="B1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2274,16 +2558,16 @@
       <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -2328,13 +2612,27 @@
         <f>B5+TIME(0,60,0)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -2350,13 +2648,27 @@
         <f t="shared" ref="B7:B20" si="0">B6+TIME(0,60,0)</f>
         <v>0.37500000000000006</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -2370,13 +2682,33 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666674</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
@@ -2391,13 +2723,33 @@
         <f t="shared" si="0"/>
         <v>0.45833333333333343</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
@@ -2417,6 +2769,12 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
@@ -2447,13 +2805,27 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="S12" s="17"/>
@@ -2463,13 +2835,27 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -2477,26 +2863,54 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>0.70833333333333326</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10">
@@ -2516,20 +2930,36 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666652</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>0.83333333333333315</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2677,16 +3107,16 @@
         <v>25</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -3133,16 +3563,16 @@
         <v>25</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -3589,16 +4019,16 @@
         <v>25</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
@@ -4045,16 +4475,16 @@
         <v>7</v>
       </c>
       <c r="L4" s="22"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10">
